--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214796.3215247654</v>
+        <v>215905.5022000238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18918821.64322885</v>
+        <v>19087887.38355839</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9446554.900257196</v>
+        <v>9612256.232354164</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5513131.504521874</v>
+        <v>5433300.945518045</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.3250193537618</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>121.3481503778102</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>251.6833334327135</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>250.9224995100143</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>76.99438333482281</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.51998803163364</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>139.485173022116</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>294.3969271427538</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5446413561275</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.4891713718012</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>106.8056168372338</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>111.5422858787866</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>29.51612010431243</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>117.7761222978268</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>111.5422858787866</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>92.50196523186487</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.3192265349075</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.36816553708744</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2002,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6.464056402160108</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>6.198379512947175</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>161.1594786880709</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.67748875058538</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474193</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>108.370535422494</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2320,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>121.231696770738</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>187.7303633741241</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2491,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891302</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>156.3950745845507</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2555,16 +2557,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>92.47043541389122</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>79.25475695663353</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2713,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429482</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>185.4631277996986</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>371.0037482136093</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2801,7 +2803,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914828</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -2968,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.9649097056851</v>
+        <v>58.31517967031814</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>45.67959927154668</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>71.94762989914828</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>93.29545524132358</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>24.1295862066214</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>74.03169761275359</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.3746648254419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>104.9037564455528</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811976</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>89.72342716134048</v>
+        <v>235.4771398164071</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098192</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>77.34040729634083</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>283.7011829714843</v>
       </c>
       <c r="X44" t="n">
-        <v>90.62875225997749</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>222.8985383453562</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1433.879624209084</v>
+        <v>266.5332241312932</v>
       </c>
       <c r="C2" t="n">
-        <v>1433.879624209084</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.587003394084</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>584.6100635419419</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>159.4858817313421</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O2" t="n">
         <v>1271.257381456703</v>
@@ -4364,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.879624209084</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="Y2" t="n">
-        <v>1433.879624209084</v>
+        <v>686.3815884228233</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M3" t="n">
-        <v>475.2419029331441</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="N3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="E4" t="n">
         <v>518.8270048838798</v>
@@ -4480,31 +4482,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1718.599492800575</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4513,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1177.899638460398</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1177.899638460398</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>1177.899638460398</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>935.3357419062033</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>708.9929735959454</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.805282784092</v>
+        <v>1347.979154371198</v>
       </c>
       <c r="C5" t="n">
-        <v>759.9045527973917</v>
+        <v>921.0784243844977</v>
       </c>
       <c r="D5" t="n">
-        <v>759.9045527973917</v>
+        <v>497.7858035694979</v>
       </c>
       <c r="E5" t="n">
-        <v>759.9045527973917</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="F5" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L5" t="n">
-        <v>1313.087264683184</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M5" t="n">
-        <v>1313.087264683184</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4604,13 +4606,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1592.142552829201</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.142552829201</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1186.805282784092</v>
+        <v>1767.827518662728</v>
       </c>
     </row>
     <row r="6">
@@ -4620,61 +4622,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0561247023296</v>
+        <v>393.2225928484406</v>
       </c>
       <c r="N6" t="n">
-        <v>772.8420314050604</v>
+        <v>850.0084995511714</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S6" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590521</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.3519836042556</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>76.20565529896515</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.464575560472</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.464575560472</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V7" t="n">
-        <v>1675.464575560472</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W7" t="n">
-        <v>1400.612171732985</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X7" t="n">
-        <v>1158.04827517879</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y7" t="n">
-        <v>931.705506868532</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.09404486892</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.09404486892</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D8" t="n">
-        <v>794.8014240539205</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E8" t="n">
-        <v>794.8014240539205</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N8" t="n">
-        <v>1407.269712569019</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4835,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1218.09404486892</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X8" t="n">
-        <v>1218.09404486892</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y8" t="n">
-        <v>1218.09404486892</v>
+        <v>632.1510044643211</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050604</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050604</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208.8845555819107</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1432.125227786372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.940779286676</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>870.229311894705</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>595.376908067218</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X10" t="n">
-        <v>352.8130115130231</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.8845555819107</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.082283114669</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="C11" t="n">
-        <v>886.181553127969</v>
+        <v>477.561703695072</v>
       </c>
       <c r="D11" t="n">
-        <v>462.8889323129692</v>
+        <v>477.561703695072</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082674</v>
+        <v>477.561703695072</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082674</v>
+        <v>477.561703695072</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L11" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M11" t="n">
-        <v>950.4838058662885</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N11" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O11" t="n">
         <v>1845.599623041337</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="X11" t="n">
-        <v>1732.930647406199</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.930647406199</v>
+        <v>904.4624336817719</v>
       </c>
     </row>
     <row r="12">
@@ -5100,34 +5102,34 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358747</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N12" t="n">
         <v>1388.813716338606</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.3425409651227</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="C13" t="n">
-        <v>734.3699778440387</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="D13" t="n">
-        <v>571.0532049708094</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="E13" t="n">
-        <v>404.8449991236629</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="F13" t="n">
-        <v>232.9832248982233</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="G13" t="n">
-        <v>66.72625519245545</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>66.72625519245545</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U13" t="n">
-        <v>1565.415174541641</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>1565.415174541641</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W13" t="n">
-        <v>1565.415174541641</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.851277987446</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y13" t="n">
-        <v>1096.508509677188</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1313.082283114669</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C14" t="n">
-        <v>886.181553127969</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D14" t="n">
-        <v>462.8889323129692</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>475.942330131692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>475.942330131692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M14" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N14" t="n">
-        <v>475.942330131692</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O14" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5312,16 +5314,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1726.633842942522</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1726.633842942522</v>
       </c>
       <c r="X14" t="n">
-        <v>1732.930647406199</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.930647406199</v>
+        <v>1314.913844110269</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N15" t="n">
-        <v>493.6978991635576</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O15" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1752.163294524301</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1508.823946750201</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1228.639498250506</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>946.9280308585344</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>672.0756270310475</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>429.5117304768526</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.206464925269</v>
+        <v>467.5343491116278</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>467.5343491116278</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>467.5343491116278</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>467.5343491116278</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>467.5343491116278</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>475.2419029331441</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L17" t="n">
-        <v>475.2419029331441</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="M17" t="n">
-        <v>932.027809635875</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N17" t="n">
-        <v>1388.813716338606</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O17" t="n">
-        <v>1388.813716338606</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R17" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>887.3827134031578</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C18" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809131</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K18" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L18" t="n">
-        <v>950.4838058662885</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M18" t="n">
-        <v>950.4838058662885</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N18" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O18" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R18" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S18" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U18" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V18" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.2917257990516</v>
+        <v>962.2361343535722</v>
       </c>
       <c r="C19" t="n">
-        <v>381.2917257990516</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D19" t="n">
-        <v>381.2917257990516</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E19" t="n">
-        <v>375.0307363920342</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q19" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W19" t="n">
-        <v>1040.36435937557</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X19" t="n">
-        <v>797.8004628213752</v>
+        <v>1378.744871375896</v>
       </c>
       <c r="Y19" t="n">
-        <v>571.4576945111172</v>
+        <v>1152.402103065638</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1745.792697513689</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.891967526989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E20" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K20" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="L20" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="M20" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="N20" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>2062.123900252203</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>2062.123900252203</v>
       </c>
       <c r="V20" t="n">
-        <v>2165.64106180522</v>
+        <v>1704.634485378453</v>
       </c>
       <c r="W20" t="n">
-        <v>2165.64106180522</v>
+        <v>1308.2431356788</v>
       </c>
       <c r="X20" t="n">
-        <v>2165.64106180522</v>
+        <v>896.5231368465472</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.64106180522</v>
+        <v>896.5231368465472</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H21" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K21" t="n">
-        <v>659.4347056307208</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.100240615159</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M21" t="n">
-        <v>1760.765775599597</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N21" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q21" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R21" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7875610435608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C22" t="n">
-        <v>207.8149979224768</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D22" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E22" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F22" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M22" t="n">
         <v>1074.392270743914</v>
@@ -5932,28 +5934,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>1669.874400135193</v>
       </c>
       <c r="X22" t="n">
-        <v>685.0860276212348</v>
+        <v>1427.310503580999</v>
       </c>
       <c r="Y22" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2216.288321679801</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="C23" t="n">
-        <v>1789.387591693101</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D23" t="n">
-        <v>1366.094970878101</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E23" t="n">
-        <v>1243.638711513719</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F23" t="n">
-        <v>818.5145297031196</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1754672925682</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>116.3070887666031</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>444.0136763269698</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>1159.521984302469</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>1943.445131808888</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M23" t="n">
-        <v>1943.445131808888</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N23" t="n">
-        <v>1943.445131808888</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O23" t="n">
-        <v>2788.5897819597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P23" t="n">
-        <v>3496.869061117628</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q23" t="n">
-        <v>3952.954540621811</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>4070.510875503714</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>3849.585304548347</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>3849.585304548347</v>
+        <v>2035.284622791544</v>
       </c>
       <c r="V23" t="n">
-        <v>3849.585304548347</v>
+        <v>1677.795207917793</v>
       </c>
       <c r="W23" t="n">
-        <v>3453.193954848693</v>
+        <v>1281.40385821814</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.473956016441</v>
+        <v>869.6838593858872</v>
       </c>
       <c r="Y23" t="n">
-        <v>2636.136685971331</v>
+        <v>464.3465893407776</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.5337085415294</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>531.0278050590342</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>427.1878465743193</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>322.4859128472565</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>228.8400825301607</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>134.7863107477647</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L24" t="n">
-        <v>918.2090255929804</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M24" t="n">
-        <v>918.2090255929804</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N24" t="n">
-        <v>918.2090255929804</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O24" t="n">
-        <v>1807.690303604452</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.097848090584</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q24" t="n">
-        <v>1890.097848090584</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
-        <v>1890.097848090584</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>1808.773600651838</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>1666.893664949517</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1482.125468869153</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1277.15233000842</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1080.630952841637</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>917.1536066082998</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>777.4607179615922</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1164.591340034311</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C25" t="n">
-        <v>992.6187769132271</v>
+        <v>837.3021845453154</v>
       </c>
       <c r="D25" t="n">
-        <v>829.3020040399978</v>
+        <v>673.9854116720861</v>
       </c>
       <c r="E25" t="n">
-        <v>663.0937981928513</v>
+        <v>507.7772058249396</v>
       </c>
       <c r="F25" t="n">
-        <v>491.2320239674117</v>
+        <v>335.9154315995</v>
       </c>
       <c r="G25" t="n">
-        <v>324.9750542616439</v>
+        <v>169.6584618937322</v>
       </c>
       <c r="H25" t="n">
-        <v>181.1787857697983</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>81.41021751007428</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9015457342323</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K25" t="n">
-        <v>365.4291469400695</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L25" t="n">
-        <v>720.1184682344903</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M25" t="n">
-        <v>1111.304263204741</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
-        <v>1488.795774080777</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1844.22390276054</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.823114682441</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>2261.823244923203</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U25" t="n">
-        <v>1981.638796423507</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V25" t="n">
-        <v>1981.638796423507</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W25" t="n">
-        <v>1823.66397361083</v>
+        <v>1668.347381242918</v>
       </c>
       <c r="X25" t="n">
-        <v>1581.100077056635</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y25" t="n">
-        <v>1354.757308746377</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1725.007578113641</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C26" t="n">
-        <v>1298.106848126941</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="D26" t="n">
-        <v>874.8142273119413</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E26" t="n">
-        <v>448.8372874597989</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F26" t="n">
         <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L26" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M26" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N26" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>2144.855942405171</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>2144.855942405171</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y26" t="n">
-        <v>2144.855942405171</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K27" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L27" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M27" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.5772905989122</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="C28" t="n">
-        <v>96.60472747782816</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P28" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W28" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y28" t="n">
-        <v>458.7432593109778</v>
+        <v>497.7495348942665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.792697513689</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.891967526989</v>
+        <v>966.442159351893</v>
       </c>
       <c r="D29" t="n">
-        <v>895.5993467119897</v>
+        <v>543.1495385368933</v>
       </c>
       <c r="E29" t="n">
-        <v>469.6224068598473</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O29" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P29" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X29" t="n">
-        <v>2120.543958335517</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y29" t="n">
-        <v>2120.543958335517</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L30" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.021068682275</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O30" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P30" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q30" t="n">
         <v>1771.166545545054</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="C31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E31" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6664,7 +6666,7 @@
         <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>544.7174319589267</v>
+        <v>626.1818057320246</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1641.263477976562</v>
+        <v>1393.342889338593</v>
       </c>
       <c r="C32" t="n">
-        <v>1641.263477976562</v>
+        <v>966.442159351893</v>
       </c>
       <c r="D32" t="n">
-        <v>1217.970857161563</v>
+        <v>543.1495385368933</v>
       </c>
       <c r="E32" t="n">
-        <v>1171.829847796364</v>
+        <v>117.1725986847508</v>
       </c>
       <c r="F32" t="n">
-        <v>746.7056659857641</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K32" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L32" t="n">
-        <v>1145.829295018124</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M32" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002562</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O32" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>1641.263477976562</v>
+        <v>1813.191253630123</v>
       </c>
       <c r="Y32" t="n">
-        <v>1641.263477976562</v>
+        <v>1813.191253630123</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133208</v>
       </c>
       <c r="C33" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308255</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461105</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190478</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>563.653486901952</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>469.599715119556</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>416.2236218818656</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L33" t="n">
-        <v>866.8612493132769</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.520320645319</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N33" t="n">
-        <v>1302.520320645319</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R33" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S33" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.58700502363</v>
       </c>
       <c r="T33" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321308</v>
       </c>
       <c r="U33" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240945</v>
       </c>
       <c r="V33" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380211</v>
       </c>
       <c r="W33" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213428</v>
       </c>
       <c r="X33" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980091</v>
       </c>
       <c r="Y33" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="34">
@@ -6853,7 +6855,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>893.7677857163897</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C35" t="n">
-        <v>893.7677857163897</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D35" t="n">
-        <v>470.47516490139</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>1100.603903091853</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M35" t="n">
-        <v>1100.603903091853</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N35" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O35" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P35" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2130.673418885282</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>1718.953420053029</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y35" t="n">
-        <v>1313.61615000792</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="36">
@@ -6996,46 +6998,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O36" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P36" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>955.7067844524004</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
         <v>955.7067844524004</v>
@@ -7090,55 +7092,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734056</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7067844524004</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X37" t="n">
-        <v>955.7067844524004</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>955.7067844524004</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>448.8372874597989</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C38" t="n">
-        <v>448.8372874597989</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D38" t="n">
-        <v>448.8372874597989</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E38" t="n">
-        <v>448.8372874597989</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F38" t="n">
         <v>448.8372874597989</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L38" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M38" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N38" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058789</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.066928185038</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="W38" t="n">
-        <v>1609.066928185038</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="X38" t="n">
-        <v>1197.346929352786</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="Y38" t="n">
-        <v>868.685651751329</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="39">
@@ -7233,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>751.8547856608809</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608809</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.520320645319</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N39" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.750951392604</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>313.77838827152</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>150.4616153982907</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688276</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1701.387456188581</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V40" t="n">
-        <v>1419.67598879661</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.823584969123</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X40" t="n">
-        <v>902.2596884149276</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.9169201046697</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>897.3758948880899</v>
+        <v>1169.998286800764</v>
       </c>
       <c r="C41" t="n">
-        <v>470.47516490139</v>
+        <v>1169.998286800764</v>
       </c>
       <c r="D41" t="n">
-        <v>470.47516490139</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E41" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M41" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.281528056982</v>
+        <v>1987.055555678126</v>
       </c>
       <c r="X41" t="n">
-        <v>1722.561529224729</v>
+        <v>1575.335556845873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1317.22425917962</v>
+        <v>1169.998286800764</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L42" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M42" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P42" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>962.2361343535722</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C43" t="n">
-        <v>790.2635712324882</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>626.9467983592589</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>460.7385925121124</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>288.8768182866728</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G43" t="n">
-        <v>122.6198485809049</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H43" t="n">
-        <v>122.6198485809049</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7594,25 +7596,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T43" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U43" t="n">
-        <v>2177.872639149549</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V43" t="n">
-        <v>1896.161171757578</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W43" t="n">
-        <v>1621.308767930091</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X43" t="n">
-        <v>1378.744871375896</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1152.402103065638</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>774.0163046538721</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="C44" t="n">
-        <v>774.0163046538721</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="D44" t="n">
-        <v>774.0163046538721</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E44" t="n">
-        <v>774.0163046538721</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F44" t="n">
-        <v>774.0163046538721</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>856.3013579804531</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L44" t="n">
-        <v>1313.087264683184</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M44" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N44" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O44" t="n">
-        <v>1728.043288159434</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555523</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V44" t="n">
-        <v>1261.951848555523</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W44" t="n">
-        <v>865.5604988558696</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="X44" t="n">
-        <v>774.0163046538721</v>
+        <v>1322.50007669869</v>
       </c>
       <c r="Y44" t="n">
-        <v>774.0163046538721</v>
+        <v>1322.50007669869</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>44.35863542273854</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L45" t="n">
-        <v>44.35863542273854</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1445421254694</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="N45" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="O45" t="n">
-        <v>1306.794406253903</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="P45" t="n">
-        <v>1763.580312956634</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>510.2820035316695</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C46" t="n">
-        <v>510.2820035316695</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D46" t="n">
-        <v>346.9652306584402</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E46" t="n">
-        <v>346.9652306584402</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F46" t="n">
-        <v>346.9652306584402</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G46" t="n">
-        <v>180.7082609526723</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.464575560472</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T46" t="n">
-        <v>1432.125227786372</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U46" t="n">
-        <v>1151.940779286676</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V46" t="n">
-        <v>926.7907405539931</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W46" t="n">
-        <v>926.7907405539931</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X46" t="n">
-        <v>926.7907405539931</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.4479722437352</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>361.4449756170225</v>
       </c>
       <c r="N2" t="n">
-        <v>456.4271212953047</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>382.30893119456</v>
       </c>
       <c r="L3" t="n">
-        <v>457.7507104621139</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>357.6439066834785</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727921</v>
       </c>
       <c r="O5" t="n">
-        <v>113.8823246645311</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>383.0064778735542</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
-        <v>182.5645565894898</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
-        <v>361.589074527822</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,19 +8543,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>182.1367435982028</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>383.0815870834488</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8693,7 +8695,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
@@ -8702,7 +8704,7 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>480.1484446815972</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>465.8542658379009</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>479.2295883411379</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>362.1121742943702</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>465.2725720398028</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>465.5045236145514</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9164,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>112.2559661033163</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>205.7998844961772</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>267.0107895760209</v>
       </c>
       <c r="O18" t="n">
-        <v>465.9293750477951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434626</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,16 +9482,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>268.0669951958125</v>
+        <v>180.6729970931269</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>830.1536055704198</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9720,25 +9722,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>98.59786501766908</v>
       </c>
       <c r="P24" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512729</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>467.7026586628312</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10112,25 +10114,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>571.1449214366446</v>
+        <v>110.4525178970657</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10185,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>459.4832504061476</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>96.76900350898876</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10349,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P32" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931274</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M33" t="n">
-        <v>463.1564485244919</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>548.8576414812763</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>300.3028744740154</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.0208015487716</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>453.322231905261</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150664</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10844,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>462.4589018454972</v>
+        <v>542.3310383704945</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>181.5591018660332</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929572</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M44" t="n">
-        <v>456.5787613602907</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908516</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>373.7308639970794</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>195.3067033330711</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>278.9475214086356</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22604,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>25.69927058198525</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>141.5049366926422</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>324.2895140098357</v>
       </c>
     </row>
     <row r="6">
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.7443209933113</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>101.420781274243</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>121.2529535058609</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>380.8827948465291</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.59016925535414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>293.490054949212</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>296.0605129651436</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.93173177419166</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>69.25476247281435</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23552,13 +23554,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>236.1383984271862</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>296.0605129651436</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>75.93173177419162</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.3306541137072</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>310.9275062493584</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>163.788781087713</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>158.3477442757278</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>57.55683655774223</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>295.2370319744276</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.7088052046614</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>300.485473682883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>68.0409969354277</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>117.2205539080141</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.7088052046614</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>326.5892591929585</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>313.1726792460231</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>38.61621282745674</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>44.64613243500543</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>348.9253100933454</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24743,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24847,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.1144309214703</v>
+        <v>165.7641609568372</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>376.0375711820743</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>348.9253100933454</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24980,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25172,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>299.131980961333</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>377.1543111380371</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>29.2919235728374</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>75.90923251921663</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>59.6423673431222</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25688,7 +25690,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>302.7040090413161</v>
+        <v>156.9502963862494</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>21.43047528078596</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>108.7262532311723</v>
       </c>
       <c r="X44" t="n">
-        <v>316.9740465839527</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.99581437269521</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436676.6773331659</v>
+        <v>436676.677333166</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>436676.677333166</v>
+        <v>436676.6773331659</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436676.677333166</v>
+        <v>436676.6773331659</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>436676.6773331659</v>
+        <v>492055.6236788772</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699088.5093981664</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492055.6236788774</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492055.6236788772</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492055.6236788775</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492055.6236788774</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436676.6773331659</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>127796.9642511872</v>
       </c>
       <c r="D2" t="n">
-        <v>127796.9642511871</v>
+        <v>127796.9642511872</v>
       </c>
       <c r="E2" t="n">
         <v>127796.9642511872</v>
@@ -26326,13 +26328,13 @@
         <v>127796.9642511872</v>
       </c>
       <c r="G2" t="n">
-        <v>127796.9642511872</v>
+        <v>144000.362781502</v>
       </c>
       <c r="H2" t="n">
         <v>144000.362781502</v>
       </c>
       <c r="I2" t="n">
-        <v>204576.3862986153</v>
+        <v>144000.3627815021</v>
       </c>
       <c r="J2" t="n">
         <v>144000.362781502</v>
@@ -26353,7 +26355,7 @@
         <v>144000.362781502</v>
       </c>
       <c r="P2" t="n">
-        <v>127796.9642511872</v>
+        <v>144000.362781502</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25990.90698746637</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>122695.9243396938</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>22820.43073295062</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38650.95123624726</v>
+        <v>38650.95123624725</v>
       </c>
       <c r="C4" t="n">
         <v>38650.95123624726</v>
@@ -26430,34 +26432,34 @@
         <v>38650.95123624726</v>
       </c>
       <c r="G4" t="n">
-        <v>38650.95123624726</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="H4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="I4" t="n">
-        <v>61968.13228980039</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="J4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="K4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="L4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387371</v>
       </c>
       <c r="M4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="N4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="O4" t="n">
-        <v>43571.76943387373</v>
+        <v>43571.76943387372</v>
       </c>
       <c r="P4" t="n">
-        <v>38650.95123624726</v>
+        <v>43571.76943387372</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>61871.76530765645</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127160.4218734089</v>
       </c>
       <c r="C6" t="n">
-        <v>27465.29874471162</v>
+        <v>27465.2987447116</v>
       </c>
       <c r="D6" t="n">
-        <v>27465.29874471157</v>
+        <v>27465.29874471163</v>
       </c>
       <c r="E6" t="n">
-        <v>61092.89874471162</v>
+        <v>61092.89874471161</v>
       </c>
       <c r="F6" t="n">
-        <v>61092.8987447116</v>
+        <v>61092.89874471164</v>
       </c>
       <c r="G6" t="n">
-        <v>61092.89874471162</v>
+        <v>40619.03532273385</v>
       </c>
       <c r="H6" t="n">
-        <v>41024.51945458484</v>
+        <v>66609.94231020022</v>
       </c>
       <c r="I6" t="n">
-        <v>-41959.43563853533</v>
+        <v>66609.94231020025</v>
       </c>
       <c r="J6" t="n">
+        <v>-54112.57463255664</v>
+      </c>
+      <c r="K6" t="n">
         <v>66609.94231020016</v>
       </c>
-      <c r="K6" t="n">
-        <v>66609.94231020019</v>
-      </c>
       <c r="L6" t="n">
-        <v>66609.94231020019</v>
+        <v>66609.94231020017</v>
       </c>
       <c r="M6" t="n">
-        <v>66609.94231020019</v>
+        <v>66609.94231020022</v>
       </c>
       <c r="N6" t="n">
         <v>66609.94231020019</v>
       </c>
       <c r="O6" t="n">
-        <v>66609.94231020016</v>
+        <v>43789.51157724958</v>
       </c>
       <c r="P6" t="n">
-        <v>61092.89874471165</v>
+        <v>66609.94231020022</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="I4" t="n">
-        <v>1017.627718875928</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>461.399905760334</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="N2" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="L3" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>335.144719185054</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="O5" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>359.9096973612262</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>442.7574853255729</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>76.49136530850691</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="O18" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>510.5455990486532</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O20" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>245.6677613624791</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>791.8415631377969</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>75.42597529544686</v>
       </c>
       <c r="P24" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>444.6058781505032</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>533.7539620806206</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>437.0840165728143</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>75.42597529544709</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P32" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>158.2737632597941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M33" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>510.5455990486534</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.2737632597931</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>440.0596680121639</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M44" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215905.5022000238</v>
+        <v>210292.5132884503</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19087887.38355839</v>
+        <v>19087887.38355838</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9612256.232354164</v>
+        <v>9612256.23235416</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>58.84470176214913</v>
       </c>
       <c r="C2" t="n">
-        <v>227.3250193537618</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.29190937885349</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -873,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>251.6833334327135</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>243.0131144639987</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.99438333482281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>139.485173022116</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>121.4151793560563</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294.3969271427538</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>194.7294434364516</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>98.00216135862601</v>
       </c>
       <c r="W10" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8056168372338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>2.995605349316558</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>135.5808967236585</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66266823451852</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>189.224355275352</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>117.7761222978268</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>95.41276009607839</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>92.50196523186487</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>139.2702769432207</v>
       </c>
       <c r="G17" t="n">
-        <v>89.36816553708744</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>6.464056402160108</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>35.56826410134457</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>371.0037482136093</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>161.1594786880709</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.370535422494</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>212.4740551539271</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>187.7303633741241</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>25.13775189891302</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>92.47043541389122</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>185.7099446844612</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.4631277996986</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2803,16 +2803,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>71.94762989914828</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>243.7227756756209</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.31517967031814</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>285.5933898553417</v>
       </c>
       <c r="F32" t="n">
-        <v>71.94762989914828</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>121.9815308269504</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.605672570599</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.1295862066214</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>55.72889015107943</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>138.282051385008</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.03169761275359</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>350.6794651315495</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>235.4771398164071</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69511841098192</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>104.7223743992572</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4039,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>283.7011829714843</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>31.11661068715786</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.5332241312932</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4357,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X2" t="n">
-        <v>1091.718858467933</v>
+        <v>96.35108514986626</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.3815884228233</v>
+        <v>96.35108514986626</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082672</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082672</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082672</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511719</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.8270048838798</v>
+        <v>733.905023372077</v>
       </c>
       <c r="C4" t="n">
-        <v>518.8270048838798</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="D4" t="n">
-        <v>518.8270048838798</v>
+        <v>518.7782410252584</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G4" t="n">
         <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4518,22 +4518,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786371</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U4" t="n">
-        <v>1177.899638460398</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V4" t="n">
-        <v>1177.899638460398</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="W4" t="n">
-        <v>1177.899638460398</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="X4" t="n">
-        <v>935.3357419062033</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.9929735959454</v>
+        <v>924.0709920841427</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1347.979154371198</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="C5" t="n">
-        <v>921.0784243844977</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="D5" t="n">
-        <v>497.7858035694979</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="E5" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F5" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N5" t="n">
-        <v>358.3859952497894</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525202</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4594,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1125.388004637139</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>728.9966549374858</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>317.276656105233</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.827518662728</v>
+        <v>317.276656105233</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922819</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L6" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484406</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511714</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O6" t="n">
+        <v>1229.627938107791</v>
+      </c>
+      <c r="P6" t="n">
         <v>1306.794406253902</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S6" t="n">
         <v>1764.275375602591</v>
@@ -4688,10 +4688,10 @@
         <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590521</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123445</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.8845555819107</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082673</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082673</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082673</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4752,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1704.705508877583</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.521060377887</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.809592985916</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="W7" t="n">
-        <v>867.9571891584293</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3932926042344</v>
+        <v>1432.900679006277</v>
       </c>
       <c r="Y7" t="n">
-        <v>399.0505242939764</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.7803709867919</v>
+        <v>889.7896622996691</v>
       </c>
       <c r="C8" t="n">
-        <v>334.7803709867919</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D8" t="n">
-        <v>334.7803709867919</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082673</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082673</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N8" t="n">
-        <v>475.942330131692</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344228</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
         <v>1845.599623041337</v>
@@ -4831,25 +4831,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341683</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X8" t="n">
-        <v>1037.488274509431</v>
+        <v>889.7896622996691</v>
       </c>
       <c r="Y8" t="n">
-        <v>632.1510044643211</v>
+        <v>889.7896622996691</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082673</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M9" t="n">
-        <v>36.91199246082673</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N9" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956633</v>
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>948.231340759624</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>776.25877763854</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4992,22 +4992,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>1223.083744587111</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>948.231340759624</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>948.231340759624</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>948.231340759624</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>904.4624336817719</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="C11" t="n">
-        <v>477.561703695072</v>
+        <v>1314.331598927777</v>
       </c>
       <c r="D11" t="n">
-        <v>477.561703695072</v>
+        <v>891.0389781127776</v>
       </c>
       <c r="E11" t="n">
-        <v>477.561703695072</v>
+        <v>465.0620382606352</v>
       </c>
       <c r="F11" t="n">
-        <v>477.561703695072</v>
+        <v>39.93785645003538</v>
       </c>
       <c r="G11" t="n">
-        <v>369.6772422433207</v>
+        <v>39.93785645003538</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>475.2419029331443</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>932.0278096358751</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.813716338606</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5071,22 +5071,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U11" t="n">
-        <v>1261.951848555522</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V11" t="n">
-        <v>904.4624336817719</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W11" t="n">
-        <v>904.4624336817719</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X11" t="n">
-        <v>904.4624336817719</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y11" t="n">
-        <v>904.4624336817719</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L12" t="n">
-        <v>950.4838058662883</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M12" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N12" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4702432027646</v>
+        <v>913.2091783695082</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4702432027646</v>
+        <v>776.25877763854</v>
       </c>
       <c r="D13" t="n">
-        <v>126.4702432027646</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E13" t="n">
-        <v>126.4702432027646</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F13" t="n">
-        <v>126.4702432027646</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786371</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V13" t="n">
-        <v>870.2293118947046</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W13" t="n">
-        <v>595.3769080672175</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130226</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027646</v>
+        <v>1103.375147081574</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.913844110269</v>
+        <v>1114.969487914001</v>
       </c>
       <c r="C14" t="n">
-        <v>888.013114123569</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="D14" t="n">
-        <v>888.013114123569</v>
+        <v>688.0687579273008</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O14" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
         <v>1271.957808655251</v>
@@ -5305,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V14" t="n">
-        <v>1726.633842942522</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W14" t="n">
-        <v>1726.633842942522</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X14" t="n">
-        <v>1314.913844110269</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.913844110269</v>
+        <v>1114.969487914001</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N15" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.1689621665946</v>
+        <v>200.228765334056</v>
       </c>
       <c r="C16" t="n">
-        <v>203.1689621665946</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>618.1289149610848</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M16" t="n">
-        <v>1009.314709931336</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N16" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5463,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1752.163294524301</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.823946750201</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U16" t="n">
-        <v>1228.639498250506</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>946.9280308585344</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>672.0756270310475</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X16" t="n">
-        <v>429.5117304768526</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.1689621665946</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.5343491116278</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C17" t="n">
-        <v>467.5343491116278</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D17" t="n">
-        <v>467.5343491116278</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E17" t="n">
-        <v>467.5343491116278</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F17" t="n">
-        <v>467.5343491116278</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G17" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H17" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L17" t="n">
-        <v>572.9146475090618</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M17" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N17" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O17" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>1641.263477976561</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>1283.774063102811</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W17" t="n">
-        <v>887.3827134031578</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X17" t="n">
-        <v>887.3827134031578</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y17" t="n">
-        <v>887.3827134031578</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.2361343535722</v>
+        <v>554.5407682429176</v>
       </c>
       <c r="C19" t="n">
-        <v>955.7067844524004</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="D19" t="n">
-        <v>792.3900115791711</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5697,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>2177.872639149549</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U19" t="n">
-        <v>2177.872639149549</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1896.161171757578</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1621.308767930091</v>
+        <v>1213.613401819436</v>
       </c>
       <c r="X19" t="n">
-        <v>1378.744871375896</v>
+        <v>971.0495052652411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1152.402103065638</v>
+        <v>744.7067369549832</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>896.5231368465472</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C20" t="n">
-        <v>469.6224068598473</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D20" t="n">
-        <v>469.6224068598473</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E20" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>549.9383681074142</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9383681074142</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M20" t="n">
-        <v>549.9383681074142</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N20" t="n">
-        <v>1100.603903091852</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O20" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T20" t="n">
-        <v>2062.123900252203</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U20" t="n">
-        <v>2062.123900252203</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V20" t="n">
-        <v>1704.634485378453</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W20" t="n">
-        <v>1308.2431356788</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X20" t="n">
-        <v>896.5231368465472</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="Y20" t="n">
-        <v>896.5231368465472</v>
+        <v>2120.543958335517</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>201.1892506764432</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N21" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q21" t="n">
         <v>1853.185855629757</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
         <v>1074.392270743914</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.72680396268</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1944.72680396268</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>1669.874400135193</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.310503580999</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M23" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N23" t="n">
-        <v>595.1637600336855</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O23" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>1696.494830002562</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U23" t="n">
-        <v>2035.284622791544</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V23" t="n">
-        <v>1677.795207917793</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W23" t="n">
-        <v>1281.40385821814</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X23" t="n">
-        <v>869.6838593858872</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="Y23" t="n">
-        <v>464.3465893407776</v>
+        <v>961.3259237170035</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L24" t="n">
-        <v>595.1637600336855</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M24" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O24" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P24" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
         <v>1771.166545545054</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1009.274747666399</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C25" t="n">
-        <v>837.3021845453154</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D25" t="n">
-        <v>673.9854116720861</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E25" t="n">
-        <v>507.7772058249396</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>335.9154315995</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>169.6584618937322</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
         <v>1074.392270743914</v>
@@ -6174,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.199785070405</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W25" t="n">
-        <v>1668.347381242918</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.783484688723</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1199.440716378465</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1393.342889338593</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="C26" t="n">
-        <v>1393.342889338593</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.938409122541</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="E26" t="n">
-        <v>873.9614692703988</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>564.8492775433185</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M26" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N26" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O26" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X26" t="n">
-        <v>1813.191253630123</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y26" t="n">
-        <v>1813.191253630123</v>
+        <v>991.7500075300184</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M27" t="n">
-        <v>756.3555336978368</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N27" t="n">
-        <v>756.3555336978368</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O27" t="n">
-        <v>756.3555336978368</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P27" t="n">
-        <v>1307.021068682275</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q27" t="n">
         <v>1771.166545545054</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.5835661822009</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C28" t="n">
-        <v>307.5835661822009</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D28" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E28" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V28" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W28" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y28" t="n">
-        <v>497.7495348942665</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1393.342889338593</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C29" t="n">
-        <v>966.442159351893</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D29" t="n">
-        <v>543.1495385368933</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E29" t="n">
-        <v>117.1725986847508</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924752</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002561</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O29" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V29" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W29" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X29" t="n">
-        <v>1813.191253630123</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y29" t="n">
-        <v>1813.191253630123</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>595.1637600336854</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336854</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M30" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N30" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O30" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P30" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
         <v>1771.166545545054</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>626.1818057320246</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6645,28 +6645,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y31" t="n">
-        <v>626.1818057320246</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1393.342889338593</v>
+        <v>1462.084567543516</v>
       </c>
       <c r="C32" t="n">
-        <v>966.442159351893</v>
+        <v>1035.183837556816</v>
       </c>
       <c r="D32" t="n">
-        <v>543.1495385368933</v>
+        <v>1035.183837556816</v>
       </c>
       <c r="E32" t="n">
-        <v>117.1725986847508</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336854</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N32" t="n">
-        <v>1696.494830002561</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.191253630123</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.191253630123</v>
+        <v>1462.084567543516</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C33" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>563.653486901952</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>416.2236218818656</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>416.2236218818656</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>572.9146475090618</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>1123.5801824935</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>1674.245717477938</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N33" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O33" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P33" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q33" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S33" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T33" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U33" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V33" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W33" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X33" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y33" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6885,25 +6885,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1780.689568770218</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.788838783518</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D35" t="n">
-        <v>930.4962179685185</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E35" t="n">
-        <v>504.5192781163761</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F35" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G35" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>1218.160237973755</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O35" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462376</v>
+        <v>747.7038736203224</v>
       </c>
       <c r="Y35" t="n">
-        <v>2200.537933061748</v>
+        <v>342.3666035752127</v>
       </c>
     </row>
     <row r="36">
@@ -6998,40 +6998,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>874.3078922751884</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L36" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M36" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N36" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O36" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P36" t="n">
         <v>1307.021068682275</v>
@@ -7092,7 +7092,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7125,22 +7125,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.60438497749</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="W37" t="n">
-        <v>1786.751981150003</v>
+        <v>1426.535052361093</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1183.971155806898</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>1183.971155806898</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2150.131759924241</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="C38" t="n">
-        <v>1723.231029937541</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.938409122541</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E38" t="n">
-        <v>873.9614692703988</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F38" t="n">
-        <v>448.8372874597989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L38" t="n">
-        <v>595.1637600336854</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M38" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2150.131759924241</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2150.131759924241</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2150.131759924241</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V38" t="n">
-        <v>2150.131759924241</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W38" t="n">
-        <v>2150.131759924241</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X38" t="n">
-        <v>2150.131759924241</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y38" t="n">
-        <v>2150.131759924241</v>
+        <v>482.0454433580491</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M39" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N39" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O39" t="n">
-        <v>838.37484378254</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7359,25 +7359,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1943.199785070404</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1169.998286800764</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="C41" t="n">
-        <v>1169.998286800764</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="D41" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E41" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F41" t="n">
-        <v>746.7056659857641</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G41" t="n">
         <v>342.3666035752127</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M41" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N41" t="n">
-        <v>1696.494830002561</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O41" t="n">
-        <v>2107.354917580473</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W41" t="n">
-        <v>1987.055555678126</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X41" t="n">
-        <v>1575.335556845873</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y41" t="n">
-        <v>1169.998286800764</v>
+        <v>696.5882855262728</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K42" t="n">
-        <v>874.3078922751884</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L42" t="n">
-        <v>874.3078922751884</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M42" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N42" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O42" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P42" t="n">
         <v>1307.021068682275</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
         <v>216.3599992746871</v>
@@ -7557,16 +7557,16 @@
         <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1322.50007669869</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C44" t="n">
-        <v>895.5993467119897</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="D44" t="n">
-        <v>895.5993467119897</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="E44" t="n">
-        <v>469.6224068598473</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336854</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M44" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>1696.494830002561</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1966.556343058788</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1609.066928185037</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W44" t="n">
-        <v>1322.50007669869</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X44" t="n">
-        <v>1322.50007669869</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y44" t="n">
-        <v>1322.50007669869</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="45">
@@ -7709,46 +7709,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M45" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N45" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O45" t="n">
-        <v>874.3078922751884</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>388.3325623957711</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>216.3599992746871</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="D46" t="n">
-        <v>216.3599992746871</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="E46" t="n">
-        <v>216.3599992746871</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="F46" t="n">
-        <v>44.49822504924752</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7833,25 +7833,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.492863465543</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.153515691443</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.969067191748</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.257599799776</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>1047.405195972289</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>804.8412994180946</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>578.4985311078367</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -7996,10 +7996,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>382.30893119456</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8069,13 +8069,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>362.0008377727921</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>457.4303624918456</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>383.0064778735542</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651628</v>
+        <v>99.71676862514295</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,16 +8385,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>320.1078160920833</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>480.7446103807745</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>383.0815870834488</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8628,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>481.0695277581962</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>465.8542658379013</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
@@ -8935,16 +8935,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>362.1121742943702</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>465.2725720398028</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425365</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L17" t="n">
-        <v>205.7998844961772</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>267.0107895760209</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>546.3101998434626</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>180.6729970931269</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
@@ -9649,16 +9649,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500401</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>451.134864077236</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>98.59786501766908</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>110.6369203512729</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7026586628312</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>110.4525178970657</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489273</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>96.76900350898876</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O32" t="n">
-        <v>452.4011488286619</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>180.6729970931274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>372.7867989824566</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>300.3028744740154</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>459.5991032870438</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>458.8548577776432</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>571.0335849150664</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>542.3310383704945</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O41" t="n">
-        <v>452.4011488286619</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>178.3948923327715</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>458.8548577776432</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P44" t="n">
-        <v>571.3293238908516</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>458.8548577776432</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>356.8051788864656</v>
       </c>
       <c r="C2" t="n">
-        <v>195.3067033330711</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22707,19 +22707,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>118.9609281110197</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>25.69927058198525</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>172.636766184616</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>324.2895140098357</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>101.420781274243</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>102.6641612710991</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.2529535058609</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23038,7 +23038,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>212.8733554074786</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>180.8921913594254</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>293.490054949212</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>291.8940893913889</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>34.67194076621462</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>75.93173177419166</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>232.492815178269</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>236.1383984271862</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>92.85154892886661</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>75.93173177419162</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23743,16 +23743,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>281.602663049273</v>
       </c>
       <c r="G17" t="n">
-        <v>310.9275062493584</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>163.788781087713</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>236.5356156878675</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>44.64613243500543</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.55683655774223</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.7088052046614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>203.1758254946877</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24220,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>68.0409969354277</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>117.2205539080141</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>326.5892591929585</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>214.5857271019846</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.61621282745674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>348.9253100933454</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>156.5728961108249</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -24745,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.7641609568372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>136.1237805982793</v>
       </c>
       <c r="F32" t="n">
-        <v>348.9253100933454</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24976,16 +24976,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>48.27130666292273</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>165.9971262733312</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.1543111380371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>132.5354188738656</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>277.3678292636067</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2919235728374</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>68.38022947530021</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -25642,7 +25642,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>156.9502963862494</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>118.5577190788912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>316.1505655932366</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>108.7262532311723</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.0265457960273</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>436676.677333166</v>
+        <v>436676.6773331659</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436676.6773331659</v>
+        <v>436676.677333166</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>492055.6236788772</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>492055.6236788774</v>
+        <v>492055.6236788773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>492055.6236788772</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>492055.6236788773</v>
+        <v>492055.6236788774</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>144000.362781502</v>
       </c>
       <c r="I2" t="n">
-        <v>144000.3627815021</v>
+        <v>144000.362781502</v>
       </c>
       <c r="J2" t="n">
         <v>144000.362781502</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25990.90698746637</v>
+        <v>25990.90698746642</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22820.43073295062</v>
+        <v>22820.43073295066</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38650.95123624725</v>
+        <v>38650.95123624726</v>
       </c>
       <c r="C4" t="n">
         <v>38650.95123624726</v>
@@ -26432,13 +26432,13 @@
         <v>38650.95123624726</v>
       </c>
       <c r="G4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="H4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="I4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="J4" t="n">
         <v>43571.76943387373</v>
@@ -26447,16 +26447,16 @@
         <v>43571.76943387372</v>
       </c>
       <c r="L4" t="n">
-        <v>43571.76943387371</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="M4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="N4" t="n">
         <v>43571.76943387372</v>
       </c>
       <c r="O4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="P4" t="n">
         <v>43571.76943387372</v>
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127160.4218734089</v>
+        <v>-127864.7816949004</v>
       </c>
       <c r="C6" t="n">
-        <v>27465.2987447116</v>
+        <v>26760.93892322009</v>
       </c>
       <c r="D6" t="n">
-        <v>27465.29874471163</v>
+        <v>26760.93892322014</v>
       </c>
       <c r="E6" t="n">
-        <v>61092.89874471161</v>
+        <v>60388.53892322011</v>
       </c>
       <c r="F6" t="n">
-        <v>61092.89874471164</v>
+        <v>60388.53892322008</v>
       </c>
       <c r="G6" t="n">
-        <v>40619.03532273385</v>
+        <v>40009.98961024403</v>
       </c>
       <c r="H6" t="n">
-        <v>66609.94231020022</v>
+        <v>66000.89659771047</v>
       </c>
       <c r="I6" t="n">
-        <v>66609.94231020025</v>
+        <v>66000.89659771053</v>
       </c>
       <c r="J6" t="n">
-        <v>-54112.57463255664</v>
+        <v>-54721.62034504636</v>
       </c>
       <c r="K6" t="n">
-        <v>66609.94231020016</v>
+        <v>66000.89659771054</v>
       </c>
       <c r="L6" t="n">
-        <v>66609.94231020017</v>
+        <v>66000.89659771053</v>
       </c>
       <c r="M6" t="n">
-        <v>66609.94231020022</v>
+        <v>66000.8965977105</v>
       </c>
       <c r="N6" t="n">
-        <v>66609.94231020019</v>
+        <v>66000.89659771051</v>
       </c>
       <c r="O6" t="n">
-        <v>43789.51157724958</v>
+        <v>43180.46586475987</v>
       </c>
       <c r="P6" t="n">
-        <v>66609.94231020022</v>
+        <v>66000.89659771051</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>359.9096973612267</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>324.7212149383461</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,16 +35105,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>299.3589151164829</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>443.4649875463285</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>359.9096973612266</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35348,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>324.7212149383461</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O16" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L17" t="n">
-        <v>167.4878420635542</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>510.5455990486532</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36369,16 +36369,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.010189472638</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>75.42597529544686</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>73.06155854104156</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>444.6058781505032</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>73.06155854104156</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>75.42597529544709</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O32" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>158.2737632597941</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>263.0232516395694</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>437.0840165728146</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>519.9318045371612</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O41" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>437.0840165728146</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P44" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>437.0840165728146</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
